--- a/HotStock_Top20_20250827.xlsx
+++ b/HotStock_Top20_20250827.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>成飞集成</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>领益智造</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>恒宝股份</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东华软件</t>
+          <t>大位科技</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>东华软件</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大位科技</t>
+          <t>吉视传媒</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中油资本</t>
+          <t>四川长虹</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>奋达科技</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>歌尔股份</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>四川长虹</t>
+          <t>天融信</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>歌尔股份</t>
+          <t>大元泵业</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>奋达科技</t>
+          <t>鸿博股份</t>
         </is>
       </c>
     </row>

--- a/HotStock_Top20_20250827.xlsx
+++ b/HotStock_Top20_20250827.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>寒武纪</t>
+          <t>拓维信息</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拓维信息</t>
+          <t>寒武纪</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>利欧股份</t>
+          <t>成飞集成</t>
         </is>
       </c>
     </row>
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>利欧股份</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>英维克</t>
+          <t>合力泰</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -616,31 +616,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东华软件</t>
+          <t>工业富联</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>剑桥科技</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>川润股份</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>吉视传媒</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>川润股份</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工业富联</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>鸿博股份</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>中油资本</t>
+          <t>新易盛</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>东华软件</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>剑桥科技</t>
+          <t>中油资本</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华东重机</t>
+          <t>新易盛</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>奋达科技</t>
+          <t>天融信</t>
         </is>
       </c>
     </row>
@@ -735,14 +735,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>歌尔股份</t>
+          <t>步步高</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>奋达科技</t>
+          <t>成飞集成</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>润和软件</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>瑞芯微</t>
+          <t>奋达科技</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>卓翼科技</t>
         </is>
       </c>
     </row>

--- a/HotStock_Top20_20250827.xlsx
+++ b/HotStock_Top20_20250827.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>领益智造</t>
         </is>
       </c>
     </row>
@@ -565,14 +565,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>成飞集成</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>天融信</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>合力泰</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,14 +599,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大位科技</t>
+          <t>步步高</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>岩山科技</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工业富联</t>
+          <t>鸿博股份</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>工业富联</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>大位科技</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东华软件</t>
+          <t>吉视传媒</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>四川长虹</t>
+          <t>大元泵业</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>天融信</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>新易盛</t>
         </is>
       </c>
     </row>
@@ -735,14 +735,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>合力泰</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>奋达科技</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>润和软件</t>
+          <t>指南针</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>奋达科技</t>
+          <t>乐鑫科技</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -769,14 +769,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大元泵业</t>
+          <t>四川长虹</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>乐鑫科技</t>
+          <t>中国卫星</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>卓翼科技</t>
+          <t>金力永磁</t>
         </is>
       </c>
     </row>

--- a/HotStock_Top20_20250827.xlsx
+++ b/HotStock_Top20_20250827.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大位科技</t>
+          <t>吉视传媒</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>大元泵业</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大元泵业</t>
+          <t>合力泰</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>大位科技</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>岩山科技</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>新易盛</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>指南针</t>
+          <t>天融信</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金力永磁</t>
+          <t>川润股份</t>
         </is>
       </c>
     </row>

--- a/HotStock_Top20_20250827.xlsx
+++ b/HotStock_Top20_20250827.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>寒武纪</t>
+          <t>领益智造</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>寒武纪</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>吉视传媒</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工业富联</t>
+          <t>大元泵业</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>鸿博股份</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大元泵业</t>
+          <t>岩山科技</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>工业富联</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大位科技</t>
+          <t>合力泰</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>新易盛</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>大位科技</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>四川长虹</t>
+          <t>东信和平</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川润股份</t>
+          <t>启明信息</t>
         </is>
       </c>
     </row>

--- a/HotStock_Top20_20250827.xlsx
+++ b/HotStock_Top20_20250827.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北方稀土</t>
+          <t>岩山科技</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>寒武纪</t>
         </is>
       </c>
     </row>
@@ -497,14 +497,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拓维信息</t>
+          <t>华胜天成</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>利欧股份</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,14 +514,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>北方稀土</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>利欧股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>寒武纪</t>
+          <t>天融信</t>
         </is>
       </c>
     </row>
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>利欧股份</t>
+          <t>吉视传媒</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>英维克</t>
+          <t>岩山科技</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>领益智造</t>
         </is>
       </c>
     </row>
@@ -582,14 +582,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>拓维信息</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,14 +599,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>万通发展</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>剑桥科技</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>剑桥科技</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>剑桥科技</t>
+          <t>合力泰</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大元泵业</t>
+          <t>利欧股份</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>新易盛</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>启明信息</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>启明信息</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>华银电力</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>中油资本</t>
+          <t>华银电力</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工业富联</t>
+          <t>步步高</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>光迅科技</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>歌尔股份</t>
+          <t>瑞芯微</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -718,14 +718,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>方正科技</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>东方财富</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -735,14 +735,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大位科技</t>
+          <t>合力泰</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>奋达科技</t>
+          <t>方正科技</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天融信</t>
+          <t>新易盛</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>乐鑫科技</t>
+          <t>东方财富</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -769,14 +769,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东信和平</t>
+          <t>五粮液</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>中国卫星</t>
+          <t>歌尔股份</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>科森科技</t>
         </is>
       </c>
     </row>

--- a/HotStock_Top20_20250827.xlsx
+++ b/HotStock_Top20_20250827.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>岩山科技</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>拓维信息</t>
+          <t>长川科技</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>寒武纪</t>
+          <t>华胜天成</t>
         </is>
       </c>
     </row>
@@ -492,24 +492,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>利欧股份</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>寒武纪</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>北方稀土</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,12 +521,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>利欧股份</t>
+          <t>岩山科技</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>北方稀土</t>
+          <t>紫光国微</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,34 +538,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>北方稀土</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>歌尔股份</t>
+          <t>科大智能</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>指南针</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>岩山科技</t>
+          <t>剑桥科技</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>寒武纪-U</t>
+          <t>亿纬锂能</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>吉视传媒</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中国卫星</t>
+          <t>章源钨业</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,97 +589,97 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>利欧股份</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>包钢股份</t>
+          <t>太辰光</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万通发展</t>
+          <t>领益智造</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>剑桥科技</t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>和而泰</t>
+          <t>隆扬电子</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>剑桥科技</t>
+          <t>启明信息</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>新易盛</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>川润股份</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>利欧股份</t>
+          <t>剑桥科技</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>瑞芯微</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中科曙光</t>
+          <t>中油资本</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>万通发展</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>启明信息</t>
+          <t>华银电力</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>合力泰</t>
+          <t>联化科技</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>利欧股份</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>合力泰</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>三七互娱</t>
+          <t>同花顺</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,46 +691,46 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>英维克</t>
+          <t>启明信息</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中电鑫龙</t>
+          <t>平潭发展</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>光迅科技</t>
+          <t>华银电力</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>瑞芯微</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>欧菲光</t>
+          <t>润建股份</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>方正科技</t>
+          <t>新易盛</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>蔚蓝锂芯</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,41 +747,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>东方财富</t>
+          <t>欣旺达</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>新易盛</t>
+          <t>方正科技</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>东方财富</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>长城军工</t>
+          <t>科华数据</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>五粮液</t>
+          <t>国光连锁</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>歌尔股份</t>
+          <t>博通集成</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>奋达科技</t>
+          <t>全志科技</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
